--- a/SCW/ROMS/netcdf_filenames_ROMS_MB.xlsx
+++ b/SCW/ROMS/netcdf_filenames_ROMS_MB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afischer/Documents/MATLAB/bloom-baby-bloom/SCW/ROMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{604D4411-86C4-674E-B9F3-959F219F4CA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F82BBC0-4D6A-D241-B6B6-6E200404C533}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17160" yWindow="460" windowWidth="20480" windowHeight="20080" xr2:uid="{FABA1310-2796-844B-AFC5-1BDA62150FB3}"/>
   </bookViews>
@@ -4715,7 +4715,7 @@
   <dimension ref="A1:A729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
